--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_ON.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F20B8EED-0267-4FDF-A88C-697F226F201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2090CFF-F433-48B1-9F6D-F1AFC2F93733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{E28B614B-08E5-45A3-BA78-348DB06C1496}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51ED81A0-AC67-4094-A59E-F743E9740316}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="307">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -896,61 +896,40 @@
     <t>Light Rail</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Transportation Freight.Diesel Blend</t>
-  </si>
-  <si>
-    <t>Transportation Freight</t>
-  </si>
-  <si>
-    <t>Diesel Blend</t>
+    <t>CIMS.CAN.ON.Waste.Sites.Large Sites</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Large Sites</t>
+  </si>
+  <si>
+    <t>Large Sites No Control</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.ON.Agriculture.Process.Soils</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Soils</t>
+  </si>
+  <si>
+    <t>Zero Tillage</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.ON.Natural Gas Extraction.Methane Fuel</t>
+  </si>
+  <si>
+    <t>Methane Fuel</t>
+  </si>
+  <si>
+    <t>Biogas</t>
   </si>
   <si>
     <t>Quick method to simulate ethanol feedstock limits (with FIC) - REPLACE WITH SOMETHING BETTER!</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Transportation Freight.Gasoline Blend</t>
-  </si>
-  <si>
-    <t>Gasoline Blend</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Transportation Freight.Flex Blend</t>
-  </si>
-  <si>
-    <t>Flex Blend</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Waste.Sites.Large Sites</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Large Sites</t>
-  </si>
-  <si>
-    <t>Large Sites No Control</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Agriculture.Process.Soils</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Soils</t>
-  </si>
-  <si>
-    <t>Zero Tillage</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Natural Gas Extraction.Methane Fuel</t>
-  </si>
-  <si>
-    <t>Methane Fuel</t>
-  </si>
-  <si>
-    <t>Biogas</t>
   </si>
   <si>
     <t>CIMS.CAN.ON.Petroleum Crude.Methane Fuel</t>
@@ -1348,21 +1327,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AE1789-5F4A-42EF-9529-D5FBEBB574CC}">
-  <dimension ref="A1:X244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D3DAF6-53E9-4BBF-9EDA-F9C19BF220DC}">
+  <dimension ref="A1:X241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X244"/>
+      <selection sqref="A1:X241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1495,7 +1474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1613,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1651,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1731,7 +1710,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1790,7 +1769,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1849,7 +1828,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1908,7 +1887,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1946,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +2005,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2085,7 +2064,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2144,7 +2123,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2203,7 +2182,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2262,7 +2241,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2321,7 +2300,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2380,7 +2359,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2439,7 +2418,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2477,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2557,7 +2536,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2616,7 +2595,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2675,7 +2654,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2734,7 +2713,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2793,7 +2772,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2852,7 +2831,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2911,7 +2890,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2970,7 +2949,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3029,7 +3008,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -3088,7 +3067,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -3147,7 +3126,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3206,7 +3185,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3265,7 +3244,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3324,7 +3303,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3383,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3442,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -3501,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3560,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3619,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3678,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3737,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -3796,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -3855,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3914,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -3973,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -4032,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -4091,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4150,7 +4129,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -4209,7 +4188,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -4268,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -4327,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -4386,7 +4365,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4445,7 +4424,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -4504,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -4563,7 +4542,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -4622,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -4681,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -4740,7 +4719,7 @@
         <v>8.9169011000000006E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -4799,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -4858,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -4917,7 +4896,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -4976,7 +4955,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -5035,7 +5014,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -5094,7 +5073,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -5153,7 +5132,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -5212,7 +5191,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -5271,7 +5250,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -5330,7 +5309,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -5389,7 +5368,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -5448,7 +5427,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -5507,7 +5486,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -5566,7 +5545,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -5625,7 +5604,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -5684,7 +5663,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -5743,7 +5722,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -5802,7 +5781,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -5861,7 +5840,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -5920,7 +5899,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>125</v>
       </c>
@@ -5979,7 +5958,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -6038,7 +6017,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -6097,7 +6076,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -6156,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -6215,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -6274,7 +6253,7 @@
         <v>0.27422680412371098</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -6333,7 +6312,7 @@
         <v>0.27371134020618498</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -6392,7 +6371,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -6451,7 +6430,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -6510,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -6569,7 +6548,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -6628,7 +6607,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -6687,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>146</v>
       </c>
@@ -6746,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -6805,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>148</v>
       </c>
@@ -6864,7 +6843,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -6923,7 +6902,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -6982,7 +6961,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -7041,7 +7020,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -7100,7 +7079,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -7159,7 +7138,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -7218,7 +7197,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -7277,7 +7256,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -7336,7 +7315,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -7395,7 +7374,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -7454,7 +7433,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -7513,7 +7492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -7572,7 +7551,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -7631,7 +7610,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -7690,7 +7669,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>156</v>
       </c>
@@ -7749,7 +7728,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>157</v>
       </c>
@@ -7808,7 +7787,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>158</v>
       </c>
@@ -7867,7 +7846,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -7926,7 +7905,7 @@
         <v>0.145455</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -7985,7 +7964,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -8044,7 +8023,7 @@
         <v>0.24727299999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -8103,7 +8082,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -8162,7 +8141,7 @@
         <v>6.1817999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>161</v>
       </c>
@@ -8221,7 +8200,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>164</v>
       </c>
@@ -8280,7 +8259,7 @@
         <v>0.145455</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -8339,7 +8318,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>164</v>
       </c>
@@ -8398,7 +8377,7 @@
         <v>0.24727299999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>164</v>
       </c>
@@ -8457,7 +8436,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>164</v>
       </c>
@@ -8516,7 +8495,7 @@
         <v>6.1817999999999998E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>164</v>
       </c>
@@ -8575,7 +8554,7 @@
         <v>6.1816999999999997E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -8634,7 +8613,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -8693,7 +8672,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -8752,7 +8731,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -8811,7 +8790,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>176</v>
       </c>
@@ -8870,7 +8849,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -8929,7 +8908,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>177</v>
       </c>
@@ -8988,7 +8967,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>177</v>
       </c>
@@ -9047,7 +9026,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>178</v>
       </c>
@@ -9106,7 +9085,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>179</v>
       </c>
@@ -9165,7 +9144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -9224,7 +9203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -9283,7 +9262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -9342,7 +9321,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>183</v>
       </c>
@@ -9401,7 +9380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -9460,7 +9439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>185</v>
       </c>
@@ -9519,7 +9498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>186</v>
       </c>
@@ -9578,7 +9557,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -9637,7 +9616,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>188</v>
       </c>
@@ -9696,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>192</v>
       </c>
@@ -9755,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>195</v>
       </c>
@@ -9814,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>195</v>
       </c>
@@ -9873,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>195</v>
       </c>
@@ -9932,7 +9911,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>195</v>
       </c>
@@ -9991,7 +9970,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>195</v>
       </c>
@@ -10050,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>195</v>
       </c>
@@ -10109,7 +10088,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>195</v>
       </c>
@@ -10168,7 +10147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>198</v>
       </c>
@@ -10227,7 +10206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>198</v>
       </c>
@@ -10286,7 +10265,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>199</v>
       </c>
@@ -10345,7 +10324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -10404,7 +10383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -10463,7 +10442,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>200</v>
       </c>
@@ -10522,7 +10501,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>200</v>
       </c>
@@ -10581,7 +10560,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>201</v>
       </c>
@@ -10640,7 +10619,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>201</v>
       </c>
@@ -10699,7 +10678,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>
@@ -10758,7 +10737,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -10817,7 +10796,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>203</v>
       </c>
@@ -10876,7 +10855,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>204</v>
       </c>
@@ -10935,7 +10914,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>205</v>
       </c>
@@ -10994,7 +10973,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>206</v>
       </c>
@@ -11053,7 +11032,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>207</v>
       </c>
@@ -11112,7 +11091,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>208</v>
       </c>
@@ -11171,7 +11150,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -11230,7 +11209,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>210</v>
       </c>
@@ -11289,7 +11268,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>212</v>
       </c>
@@ -11348,7 +11327,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>212</v>
       </c>
@@ -11407,7 +11386,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>213</v>
       </c>
@@ -11466,7 +11445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>217</v>
       </c>
@@ -11525,7 +11504,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -11584,7 +11563,7 @@
         <v>1.6667000000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>222</v>
       </c>
@@ -11643,7 +11622,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>225</v>
       </c>
@@ -11702,7 +11681,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>225</v>
       </c>
@@ -11761,7 +11740,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>228</v>
       </c>
@@ -11820,7 +11799,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>228</v>
       </c>
@@ -11879,7 +11858,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>228</v>
       </c>
@@ -11938,7 +11917,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>232</v>
       </c>
@@ -11997,7 +11976,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>232</v>
       </c>
@@ -12056,7 +12035,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>232</v>
       </c>
@@ -12115,7 +12094,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>232</v>
       </c>
@@ -12174,7 +12153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>235</v>
       </c>
@@ -12233,7 +12212,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>235</v>
       </c>
@@ -12292,7 +12271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>235</v>
       </c>
@@ -12351,7 +12330,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>236</v>
       </c>
@@ -12410,7 +12389,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>236</v>
       </c>
@@ -12469,7 +12448,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>237</v>
       </c>
@@ -12528,7 +12507,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>237</v>
       </c>
@@ -12587,7 +12566,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -12646,7 +12625,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>238</v>
       </c>
@@ -12705,7 +12684,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>238</v>
       </c>
@@ -12764,7 +12743,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>238</v>
       </c>
@@ -12823,7 +12802,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -12882,7 +12861,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>240</v>
       </c>
@@ -12941,7 +12920,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>241</v>
       </c>
@@ -13000,7 +12979,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -13059,7 +13038,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>243</v>
       </c>
@@ -13118,7 +13097,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>244</v>
       </c>
@@ -13177,7 +13156,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>245</v>
       </c>
@@ -13236,7 +13215,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>245</v>
       </c>
@@ -13295,7 +13274,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>245</v>
       </c>
@@ -13354,7 +13333,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>245</v>
       </c>
@@ -13413,7 +13392,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>247</v>
       </c>
@@ -13472,7 +13451,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>247</v>
       </c>
@@ -13531,7 +13510,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>247</v>
       </c>
@@ -13590,7 +13569,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>247</v>
       </c>
@@ -13649,7 +13628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>249</v>
       </c>
@@ -13708,7 +13687,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>249</v>
       </c>
@@ -13767,7 +13746,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>249</v>
       </c>
@@ -13826,7 +13805,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>249</v>
       </c>
@@ -13885,7 +13864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -13944,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>254</v>
       </c>
@@ -14003,7 +13982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>257</v>
       </c>
@@ -14062,7 +14041,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>257</v>
       </c>
@@ -14121,7 +14100,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>257</v>
       </c>
@@ -14180,7 +14159,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>262</v>
       </c>
@@ -14239,7 +14218,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>266</v>
       </c>
@@ -14298,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>269</v>
       </c>
@@ -14357,7 +14336,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>269</v>
       </c>
@@ -14416,7 +14395,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>271</v>
       </c>
@@ -14485,7 +14464,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>271</v>
       </c>
@@ -14554,7 +14533,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>271</v>
       </c>
@@ -14623,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>271</v>
       </c>
@@ -14692,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>276</v>
       </c>
@@ -14751,7 +14730,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>279</v>
       </c>
@@ -14810,7 +14789,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>283</v>
       </c>
@@ -14869,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>286</v>
       </c>
@@ -14886,7 +14865,7 @@
         <v>288</v>
       </c>
       <c r="F230" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="G230" t="s">
         <v>19</v>
@@ -14895,53 +14874,40 @@
         <v>20</v>
       </c>
       <c r="M230">
-        <v>0</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="N230">
-        <f>(0.002*0.87)/(0.002*0.87+(1-0.002))</f>
-        <v>1.7404525176545902E-3</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="O230">
-        <f>(0.005*0.87)/(0.005*0.87+(1-0.005))</f>
-        <v>4.3528293390703958E-3</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="P230">
-        <f>(0.01*0.87)/(0.01*0.87+(1-0.01))</f>
-        <v>8.7113247221387788E-3</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="Q230">
-        <f>(0.04*0.87)/(0.04*0.87+(1-0.04))</f>
-        <v>3.4981905910735828E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="R230">
-        <f>MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),Q230*1.1)</f>
-        <v>3.8480096501809412E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="S230">
-        <f t="shared" ref="S230:W230" si="1">MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),R230*1.1)</f>
-        <v>4.2328106151990355E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="T230">
-        <f t="shared" si="1"/>
-        <v>4.6560916767189396E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="U230">
-        <f t="shared" si="1"/>
-        <v>5.1217008443908342E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="V230">
-        <f t="shared" si="1"/>
-        <v>5.6338709288299184E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="W230">
-        <f t="shared" si="1"/>
-        <v>6.1972580217129106E-2</v>
-      </c>
-      <c r="X230" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0.56385600000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>290</v>
       </c>
@@ -14952,13 +14918,13 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E231" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F231" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="G231" t="s">
         <v>19</v>
@@ -14967,56 +14933,42 @@
         <v>20</v>
       </c>
       <c r="M231">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
-        <v>1.3489027582041475E-2</v>
+        <v>0.95</v>
       </c>
       <c r="N231">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
-        <v>2.7158492095662748E-2</v>
+        <v>0.95</v>
       </c>
       <c r="O231">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
-        <v>3.4062023385866808E-2</v>
+        <v>0.95</v>
       </c>
       <c r="P231">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
-        <v>4.1012038359518464E-2</v>
+        <v>0.95</v>
       </c>
       <c r="Q231">
-        <f>(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
-        <v>6.9286452947259561E-2</v>
+        <v>0.95</v>
       </c>
       <c r="R231">
-        <f>MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),Q231*1.1)</f>
-        <v>7.6215098241985524E-2</v>
+        <v>0.95</v>
       </c>
       <c r="S231">
-        <f t="shared" ref="S231:W231" si="2">MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),R231*1.1)</f>
-        <v>8.3836608066184079E-2</v>
+        <v>0.95</v>
       </c>
       <c r="T231">
-        <f t="shared" si="2"/>
-        <v>9.2220268872802491E-2</v>
+        <v>0.95</v>
       </c>
       <c r="U231">
-        <f t="shared" si="2"/>
-        <v>0.10144229576008275</v>
+        <v>0.95</v>
       </c>
       <c r="V231">
-        <f t="shared" si="2"/>
-        <v>0.10573382430299842</v>
+        <v>0.95</v>
       </c>
       <c r="W231">
-        <f t="shared" si="2"/>
-        <v>0.10573382430299842</v>
-      </c>
-      <c r="X231" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -15025,13 +14977,13 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="E232" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F232" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="G232" t="s">
         <v>19</v>
@@ -15040,56 +14992,45 @@
         <v>20</v>
       </c>
       <c r="M232">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
-        <v>1.3489027582041475E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N232">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
-        <v>2.7158492095662748E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O232">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
-        <v>3.4062023385866808E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P232">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
-        <v>4.1012038359518464E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q232">
-        <f>(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
-        <v>6.9286452947259561E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R232">
-        <f>MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),Q232*2)</f>
-        <v>0.13857290589451912</v>
+        <v>0.01</v>
       </c>
       <c r="S232">
-        <f t="shared" ref="S232:W232" si="3">MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),R232*2)</f>
-        <v>0.27714581178903824</v>
+        <v>0.01</v>
       </c>
       <c r="T232">
-        <f t="shared" si="3"/>
-        <v>0.55429162357807649</v>
+        <v>0.01</v>
       </c>
       <c r="U232">
-        <f t="shared" si="3"/>
-        <v>0.79152189020152885</v>
+        <v>0.01</v>
       </c>
       <c r="V232">
-        <f t="shared" si="3"/>
-        <v>0.79152189020152885</v>
+        <v>0.01</v>
       </c>
       <c r="W232">
-        <f t="shared" si="3"/>
-        <v>0.79152189020152885</v>
+        <v>0.01</v>
       </c>
       <c r="X232" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -15098,57 +15039,60 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
         <v>295</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>296</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
+        <v>19</v>
+      </c>
+      <c r="L233" t="s">
+        <v>20</v>
+      </c>
+      <c r="M233">
+        <v>0.01</v>
+      </c>
+      <c r="N233">
+        <v>0.01</v>
+      </c>
+      <c r="O233">
+        <v>0.01</v>
+      </c>
+      <c r="P233">
+        <v>0.01</v>
+      </c>
+      <c r="Q233">
+        <v>0.01</v>
+      </c>
+      <c r="R233">
+        <v>0.01</v>
+      </c>
+      <c r="S233">
+        <v>0.01</v>
+      </c>
+      <c r="T233">
+        <v>0.01</v>
+      </c>
+      <c r="U233">
+        <v>0.01</v>
+      </c>
+      <c r="V233">
+        <v>0.01</v>
+      </c>
+      <c r="W233">
+        <v>0.01</v>
+      </c>
+      <c r="X233" t="s">
         <v>297</v>
       </c>
-      <c r="G233" t="s">
-        <v>19</v>
-      </c>
-      <c r="L233" t="s">
-        <v>20</v>
-      </c>
-      <c r="M233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="N233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="O233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="P233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="Q233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="R233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="S233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="T233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="U233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="V233">
-        <v>0.56385600000000002</v>
-      </c>
-      <c r="W233">
-        <v>0.56385600000000002</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -15157,58 +15101,61 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="E234" t="s">
+        <v>295</v>
+      </c>
+      <c r="F234" t="s">
+        <v>296</v>
+      </c>
+      <c r="G234" t="s">
+        <v>19</v>
+      </c>
+      <c r="L234" t="s">
+        <v>20</v>
+      </c>
+      <c r="M234">
+        <v>0.01</v>
+      </c>
+      <c r="N234">
+        <v>0.01</v>
+      </c>
+      <c r="O234">
+        <v>0.01</v>
+      </c>
+      <c r="P234">
+        <v>0.01</v>
+      </c>
+      <c r="Q234">
+        <v>0.01</v>
+      </c>
+      <c r="R234">
+        <v>0.01</v>
+      </c>
+      <c r="S234">
+        <v>0.01</v>
+      </c>
+      <c r="T234">
+        <v>0.01</v>
+      </c>
+      <c r="U234">
+        <v>0.01</v>
+      </c>
+      <c r="V234">
+        <v>0.01</v>
+      </c>
+      <c r="W234">
+        <v>0.01</v>
+      </c>
+      <c r="X234" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>300</v>
       </c>
-      <c r="F234" t="s">
-        <v>301</v>
-      </c>
-      <c r="G234" t="s">
-        <v>19</v>
-      </c>
-      <c r="L234" t="s">
-        <v>20</v>
-      </c>
-      <c r="M234">
-        <v>0.95</v>
-      </c>
-      <c r="N234">
-        <v>0.95</v>
-      </c>
-      <c r="O234">
-        <v>0.95</v>
-      </c>
-      <c r="P234">
-        <v>0.95</v>
-      </c>
-      <c r="Q234">
-        <v>0.95</v>
-      </c>
-      <c r="R234">
-        <v>0.95</v>
-      </c>
-      <c r="S234">
-        <v>0.95</v>
-      </c>
-      <c r="T234">
-        <v>0.95</v>
-      </c>
-      <c r="U234">
-        <v>0.95</v>
-      </c>
-      <c r="V234">
-        <v>0.95</v>
-      </c>
-      <c r="W234">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>302</v>
-      </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
@@ -15216,13 +15163,13 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E235" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F235" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G235" t="s">
         <v>19</v>
@@ -15264,12 +15211,12 @@
         <v>0.01</v>
       </c>
       <c r="X235" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -15278,13 +15225,13 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E236" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F236" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G236" t="s">
         <v>19</v>
@@ -15326,12 +15273,12 @@
         <v>0.01</v>
       </c>
       <c r="X236" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -15340,13 +15287,13 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E237" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F237" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G237" t="s">
         <v>19</v>
@@ -15388,12 +15335,12 @@
         <v>0.01</v>
       </c>
       <c r="X237" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -15402,13 +15349,13 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E238" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F238" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G238" t="s">
         <v>19</v>
@@ -15450,12 +15397,12 @@
         <v>0.01</v>
       </c>
       <c r="X238" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -15464,13 +15411,13 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="E239" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F239" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G239" t="s">
         <v>19</v>
@@ -15512,12 +15459,12 @@
         <v>0.01</v>
       </c>
       <c r="X239" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -15526,13 +15473,13 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="E240" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F240" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G240" t="s">
         <v>19</v>
@@ -15574,12 +15521,12 @@
         <v>0.01</v>
       </c>
       <c r="X240" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -15588,13 +15535,13 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="E241" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F241" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G241" t="s">
         <v>19</v>
@@ -15636,193 +15583,7 @@
         <v>0.01</v>
       </c>
       <c r="X241" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>311</v>
-      </c>
-      <c r="B242" t="s">
-        <v>5</v>
-      </c>
-      <c r="C242" t="s">
-        <v>15</v>
-      </c>
-      <c r="D242" t="s">
-        <v>189</v>
-      </c>
-      <c r="E242" t="s">
-        <v>303</v>
-      </c>
-      <c r="F242" t="s">
-        <v>304</v>
-      </c>
-      <c r="G242" t="s">
-        <v>19</v>
-      </c>
-      <c r="L242" t="s">
-        <v>20</v>
-      </c>
-      <c r="M242">
-        <v>0.01</v>
-      </c>
-      <c r="N242">
-        <v>0.01</v>
-      </c>
-      <c r="O242">
-        <v>0.01</v>
-      </c>
-      <c r="P242">
-        <v>0.01</v>
-      </c>
-      <c r="Q242">
-        <v>0.01</v>
-      </c>
-      <c r="R242">
-        <v>0.01</v>
-      </c>
-      <c r="S242">
-        <v>0.01</v>
-      </c>
-      <c r="T242">
-        <v>0.01</v>
-      </c>
-      <c r="U242">
-        <v>0.01</v>
-      </c>
-      <c r="V242">
-        <v>0.01</v>
-      </c>
-      <c r="W242">
-        <v>0.01</v>
-      </c>
-      <c r="X242" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>312</v>
-      </c>
-      <c r="B243" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" t="s">
-        <v>15</v>
-      </c>
-      <c r="D243" t="s">
-        <v>214</v>
-      </c>
-      <c r="E243" t="s">
-        <v>303</v>
-      </c>
-      <c r="F243" t="s">
-        <v>304</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
-      <c r="L243" t="s">
-        <v>20</v>
-      </c>
-      <c r="M243">
-        <v>0.01</v>
-      </c>
-      <c r="N243">
-        <v>0.01</v>
-      </c>
-      <c r="O243">
-        <v>0.01</v>
-      </c>
-      <c r="P243">
-        <v>0.01</v>
-      </c>
-      <c r="Q243">
-        <v>0.01</v>
-      </c>
-      <c r="R243">
-        <v>0.01</v>
-      </c>
-      <c r="S243">
-        <v>0.01</v>
-      </c>
-      <c r="T243">
-        <v>0.01</v>
-      </c>
-      <c r="U243">
-        <v>0.01</v>
-      </c>
-      <c r="V243">
-        <v>0.01</v>
-      </c>
-      <c r="W243">
-        <v>0.01</v>
-      </c>
-      <c r="X243" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>313</v>
-      </c>
-      <c r="B244" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" t="s">
-        <v>15</v>
-      </c>
-      <c r="D244" t="s">
-        <v>252</v>
-      </c>
-      <c r="E244" t="s">
-        <v>303</v>
-      </c>
-      <c r="F244" t="s">
-        <v>304</v>
-      </c>
-      <c r="G244" t="s">
-        <v>19</v>
-      </c>
-      <c r="L244" t="s">
-        <v>20</v>
-      </c>
-      <c r="M244">
-        <v>0.01</v>
-      </c>
-      <c r="N244">
-        <v>0.01</v>
-      </c>
-      <c r="O244">
-        <v>0.01</v>
-      </c>
-      <c r="P244">
-        <v>0.01</v>
-      </c>
-      <c r="Q244">
-        <v>0.01</v>
-      </c>
-      <c r="R244">
-        <v>0.01</v>
-      </c>
-      <c r="S244">
-        <v>0.01</v>
-      </c>
-      <c r="T244">
-        <v>0.01</v>
-      </c>
-      <c r="U244">
-        <v>0.01</v>
-      </c>
-      <c r="V244">
-        <v>0.01</v>
-      </c>
-      <c r="W244">
-        <v>0.01</v>
-      </c>
-      <c r="X244" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_ON.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_ON.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFF5521-0A4C-438B-A2DC-D728D53B32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6EE5C2-B0E9-436D-B831-817767B35631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35835" yWindow="4365" windowWidth="17250" windowHeight="8865" xr2:uid="{5B54CF6C-552B-4A01-80A2-CE7041CE23F4}"/>
+    <workbookView xWindow="37170" yWindow="5385" windowWidth="17250" windowHeight="8865" xr2:uid="{AFAA18D1-7240-42EF-89E9-AFB80A8B230B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="295">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -837,57 +837,6 @@
   </si>
   <si>
     <t>Eff wood waste</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Residential.Buildings.Ranges</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Ranges</t>
-  </si>
-  <si>
-    <t>NG existing</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Residential.Buildings.Non-appliance Hot Water</t>
-  </si>
-  <si>
-    <t>Non-appliance Hot Water</t>
-  </si>
-  <si>
-    <t>Low flow devices</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Residential.Space Heating</t>
-  </si>
-  <si>
-    <t>Wood stove efficient</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Residential.Clothes Drying.Machine</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>NG Std</t>
-  </si>
-  <si>
-    <t>NG heat pump</t>
-  </si>
-  <si>
-    <t>Retrofit_new_max</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Residential.Water Heating.House</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Oil existing</t>
   </si>
   <si>
     <t>CIMS.CAN.ON.Transportation Personal.Transit.Public Bus</t>
@@ -1342,11 +1291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5901AB40-6804-4A20-9E88-EBA31C8F381C}">
-  <dimension ref="A1:X251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3762CA1B-7500-4B1F-82E0-C143DB7CDD6F}">
+  <dimension ref="A1:X242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X251"/>
+      <selection sqref="A1:X242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14528,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>259</v>
       </c>
@@ -14587,7 +14536,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>262</v>
       </c>
@@ -14646,7 +14595,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>262</v>
       </c>
@@ -14705,7 +14654,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>262</v>
       </c>
@@ -14764,7 +14713,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>267</v>
       </c>
@@ -14790,40 +14739,40 @@
         <v>20</v>
       </c>
       <c r="M229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="N229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="O229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="P229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="Q229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="R229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="S229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="T229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="U229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="V229">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="W229">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>271</v>
       </c>
@@ -14843,19 +14792,19 @@
         <v>273</v>
       </c>
       <c r="G230" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L230" t="s">
         <v>20</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N230">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O230">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P230">
         <v>1</v>
@@ -14882,7 +14831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>274</v>
       </c>
@@ -14893,13 +14842,13 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E231" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="F231" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G231" t="s">
         <v>19</v>
@@ -14908,42 +14857,42 @@
         <v>20</v>
       </c>
       <c r="M231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="N231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="O231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="P231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="Q231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="R231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="S231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="T231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="U231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="V231">
-        <v>2.7E-2</v>
+        <v>0.56385600000000002</v>
       </c>
       <c r="W231">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.56385600000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -14952,57 +14901,57 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E232" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="F232" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L232" t="s">
         <v>20</v>
       </c>
       <c r="M232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="N232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="O232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="P232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="Q232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="R232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="S232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="T232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="U232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="V232">
-        <v>2.5999999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="W232">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -15011,13 +14960,13 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="E233" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F233" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G233" t="s">
         <v>19</v>
@@ -15026,52 +14975,45 @@
         <v>20</v>
       </c>
       <c r="M233">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N233">
-        <f t="shared" ref="N233:W236" si="0">M233</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="R233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="U233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="V233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="W233">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="X233" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -15080,13 +15022,13 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="E234" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F234" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G234" t="s">
         <v>19</v>
@@ -15095,52 +15037,45 @@
         <v>20</v>
       </c>
       <c r="M234">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="O234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="P234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="Q234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="R234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="S234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="T234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="U234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="V234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="W234">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="X234" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -15149,67 +15084,60 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="E235" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F235" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G235" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="L235" t="s">
         <v>20</v>
       </c>
       <c r="M235">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V235">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W235">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="X235" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -15218,67 +15146,60 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="E236" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F236" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G236" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="L236" t="s">
         <v>20</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W236">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="X236" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -15287,116 +15208,122 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="E237" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F237" t="s">
+        <v>284</v>
+      </c>
+      <c r="G237" t="s">
+        <v>19</v>
+      </c>
+      <c r="L237" t="s">
+        <v>20</v>
+      </c>
+      <c r="M237">
+        <v>0.01</v>
+      </c>
+      <c r="N237">
+        <v>0.01</v>
+      </c>
+      <c r="O237">
+        <v>0.01</v>
+      </c>
+      <c r="P237">
+        <v>0.01</v>
+      </c>
+      <c r="Q237">
+        <v>0.01</v>
+      </c>
+      <c r="R237">
+        <v>0.01</v>
+      </c>
+      <c r="S237">
+        <v>0.01</v>
+      </c>
+      <c r="T237">
+        <v>0.01</v>
+      </c>
+      <c r="U237">
+        <v>0.01</v>
+      </c>
+      <c r="V237">
+        <v>0.01</v>
+      </c>
+      <c r="W237">
+        <v>0.01</v>
+      </c>
+      <c r="X237" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>290</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" t="s">
+        <v>133</v>
+      </c>
+      <c r="E238" t="s">
         <v>283</v>
       </c>
-      <c r="G237" t="s">
-        <v>19</v>
-      </c>
-      <c r="L237" t="s">
-        <v>20</v>
-      </c>
-      <c r="M237">
-        <v>0.03</v>
-      </c>
-      <c r="N237">
-        <v>0.03</v>
-      </c>
-      <c r="O237">
-        <v>0.03</v>
-      </c>
-      <c r="P237">
-        <v>0.03</v>
-      </c>
-      <c r="Q237">
-        <v>0.03</v>
-      </c>
-      <c r="R237">
-        <v>0.03</v>
-      </c>
-      <c r="S237">
-        <v>0.03</v>
-      </c>
-      <c r="T237">
-        <v>0.03</v>
-      </c>
-      <c r="U237">
-        <v>0.03</v>
-      </c>
-      <c r="V237">
-        <v>0.03</v>
-      </c>
-      <c r="W237">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="F238" t="s">
         <v>284</v>
       </c>
-      <c r="B238" t="s">
-        <v>5</v>
-      </c>
-      <c r="C238" t="s">
-        <v>15</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="G238" t="s">
+        <v>19</v>
+      </c>
+      <c r="L238" t="s">
+        <v>20</v>
+      </c>
+      <c r="M238">
+        <v>0.01</v>
+      </c>
+      <c r="N238">
+        <v>0.01</v>
+      </c>
+      <c r="O238">
+        <v>0.01</v>
+      </c>
+      <c r="P238">
+        <v>0.01</v>
+      </c>
+      <c r="Q238">
+        <v>0.01</v>
+      </c>
+      <c r="R238">
+        <v>0.01</v>
+      </c>
+      <c r="S238">
+        <v>0.01</v>
+      </c>
+      <c r="T238">
+        <v>0.01</v>
+      </c>
+      <c r="U238">
+        <v>0.01</v>
+      </c>
+      <c r="V238">
+        <v>0.01</v>
+      </c>
+      <c r="W238">
+        <v>0.01</v>
+      </c>
+      <c r="X238" t="s">
         <v>285</v>
       </c>
-      <c r="E238" t="s">
-        <v>286</v>
-      </c>
-      <c r="F238" t="s">
-        <v>287</v>
-      </c>
-      <c r="G238" t="s">
-        <v>19</v>
-      </c>
-      <c r="L238" t="s">
-        <v>20</v>
-      </c>
-      <c r="M238">
-        <v>1E-3</v>
-      </c>
-      <c r="N238">
-        <v>1E-3</v>
-      </c>
-      <c r="O238">
-        <v>1E-3</v>
-      </c>
-      <c r="P238">
-        <v>1E-3</v>
-      </c>
-      <c r="Q238">
-        <v>1E-3</v>
-      </c>
-      <c r="R238">
-        <v>1E-3</v>
-      </c>
-      <c r="S238">
-        <v>1E-3</v>
-      </c>
-      <c r="T238">
-        <v>1E-3</v>
-      </c>
-      <c r="U238">
-        <v>1E-3</v>
-      </c>
-      <c r="V238">
-        <v>1E-3</v>
-      </c>
-      <c r="W238">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -15405,57 +15332,60 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
+        <v>169</v>
+      </c>
+      <c r="E239" t="s">
+        <v>283</v>
+      </c>
+      <c r="F239" t="s">
+        <v>284</v>
+      </c>
+      <c r="G239" t="s">
+        <v>19</v>
+      </c>
+      <c r="L239" t="s">
+        <v>20</v>
+      </c>
+      <c r="M239">
+        <v>0.01</v>
+      </c>
+      <c r="N239">
+        <v>0.01</v>
+      </c>
+      <c r="O239">
+        <v>0.01</v>
+      </c>
+      <c r="P239">
+        <v>0.01</v>
+      </c>
+      <c r="Q239">
+        <v>0.01</v>
+      </c>
+      <c r="R239">
+        <v>0.01</v>
+      </c>
+      <c r="S239">
+        <v>0.01</v>
+      </c>
+      <c r="T239">
+        <v>0.01</v>
+      </c>
+      <c r="U239">
+        <v>0.01</v>
+      </c>
+      <c r="V239">
+        <v>0.01</v>
+      </c>
+      <c r="W239">
+        <v>0.01</v>
+      </c>
+      <c r="X239" t="s">
         <v>285</v>
       </c>
-      <c r="E239" t="s">
-        <v>289</v>
-      </c>
-      <c r="F239" t="s">
-        <v>290</v>
-      </c>
-      <c r="G239" t="s">
-        <v>33</v>
-      </c>
-      <c r="L239" t="s">
-        <v>20</v>
-      </c>
-      <c r="M239">
-        <v>1</v>
-      </c>
-      <c r="N239">
-        <v>1</v>
-      </c>
-      <c r="O239">
-        <v>1</v>
-      </c>
-      <c r="P239">
-        <v>1</v>
-      </c>
-      <c r="Q239">
-        <v>1</v>
-      </c>
-      <c r="R239">
-        <v>1</v>
-      </c>
-      <c r="S239">
-        <v>1</v>
-      </c>
-      <c r="T239">
-        <v>1</v>
-      </c>
-      <c r="U239">
-        <v>1</v>
-      </c>
-      <c r="V239">
-        <v>1</v>
-      </c>
-      <c r="W239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -15464,13 +15394,13 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="E240" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F240" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G240" t="s">
         <v>19</v>
@@ -15479,42 +15409,45 @@
         <v>20</v>
       </c>
       <c r="M240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="N240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="O240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="P240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="Q240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="R240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="S240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="T240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="U240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="V240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
       </c>
       <c r="W240">
-        <v>0.56385600000000002</v>
+        <v>0.01</v>
+      </c>
+      <c r="X240" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -15523,13 +15456,13 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="E241" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F241" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G241" t="s">
         <v>19</v>
@@ -15538,42 +15471,45 @@
         <v>20</v>
       </c>
       <c r="M241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="N241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="O241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="P241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="Q241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="R241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="S241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="T241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="U241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="V241">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="W241">
-        <v>0.95</v>
+        <v>0.01</v>
+      </c>
+      <c r="X241" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -15582,13 +15518,13 @@
         <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="E242" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F242" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G242" t="s">
         <v>19</v>
@@ -15630,565 +15566,7 @@
         <v>0.01</v>
       </c>
       <c r="X242" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>303</v>
-      </c>
-      <c r="B243" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" t="s">
-        <v>15</v>
-      </c>
-      <c r="D243" t="s">
-        <v>26</v>
-      </c>
-      <c r="E243" t="s">
-        <v>300</v>
-      </c>
-      <c r="F243" t="s">
-        <v>301</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
-      <c r="L243" t="s">
-        <v>20</v>
-      </c>
-      <c r="M243">
-        <v>0.01</v>
-      </c>
-      <c r="N243">
-        <v>0.01</v>
-      </c>
-      <c r="O243">
-        <v>0.01</v>
-      </c>
-      <c r="P243">
-        <v>0.01</v>
-      </c>
-      <c r="Q243">
-        <v>0.01</v>
-      </c>
-      <c r="R243">
-        <v>0.01</v>
-      </c>
-      <c r="S243">
-        <v>0.01</v>
-      </c>
-      <c r="T243">
-        <v>0.01</v>
-      </c>
-      <c r="U243">
-        <v>0.01</v>
-      </c>
-      <c r="V243">
-        <v>0.01</v>
-      </c>
-      <c r="W243">
-        <v>0.01</v>
-      </c>
-      <c r="X243" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>304</v>
-      </c>
-      <c r="B244" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" t="s">
-        <v>15</v>
-      </c>
-      <c r="D244" t="s">
-        <v>36</v>
-      </c>
-      <c r="E244" t="s">
-        <v>300</v>
-      </c>
-      <c r="F244" t="s">
-        <v>301</v>
-      </c>
-      <c r="G244" t="s">
-        <v>19</v>
-      </c>
-      <c r="L244" t="s">
-        <v>20</v>
-      </c>
-      <c r="M244">
-        <v>0.01</v>
-      </c>
-      <c r="N244">
-        <v>0.01</v>
-      </c>
-      <c r="O244">
-        <v>0.01</v>
-      </c>
-      <c r="P244">
-        <v>0.01</v>
-      </c>
-      <c r="Q244">
-        <v>0.01</v>
-      </c>
-      <c r="R244">
-        <v>0.01</v>
-      </c>
-      <c r="S244">
-        <v>0.01</v>
-      </c>
-      <c r="T244">
-        <v>0.01</v>
-      </c>
-      <c r="U244">
-        <v>0.01</v>
-      </c>
-      <c r="V244">
-        <v>0.01</v>
-      </c>
-      <c r="W244">
-        <v>0.01</v>
-      </c>
-      <c r="X244" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>305</v>
-      </c>
-      <c r="B245" t="s">
-        <v>5</v>
-      </c>
-      <c r="C245" t="s">
-        <v>15</v>
-      </c>
-      <c r="D245" t="s">
-        <v>78</v>
-      </c>
-      <c r="E245" t="s">
-        <v>300</v>
-      </c>
-      <c r="F245" t="s">
-        <v>301</v>
-      </c>
-      <c r="G245" t="s">
-        <v>19</v>
-      </c>
-      <c r="L245" t="s">
-        <v>20</v>
-      </c>
-      <c r="M245">
-        <v>0.01</v>
-      </c>
-      <c r="N245">
-        <v>0.01</v>
-      </c>
-      <c r="O245">
-        <v>0.01</v>
-      </c>
-      <c r="P245">
-        <v>0.01</v>
-      </c>
-      <c r="Q245">
-        <v>0.01</v>
-      </c>
-      <c r="R245">
-        <v>0.01</v>
-      </c>
-      <c r="S245">
-        <v>0.01</v>
-      </c>
-      <c r="T245">
-        <v>0.01</v>
-      </c>
-      <c r="U245">
-        <v>0.01</v>
-      </c>
-      <c r="V245">
-        <v>0.01</v>
-      </c>
-      <c r="W245">
-        <v>0.01</v>
-      </c>
-      <c r="X245" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>306</v>
-      </c>
-      <c r="B246" t="s">
-        <v>5</v>
-      </c>
-      <c r="C246" t="s">
-        <v>15</v>
-      </c>
-      <c r="D246" t="s">
-        <v>102</v>
-      </c>
-      <c r="E246" t="s">
-        <v>300</v>
-      </c>
-      <c r="F246" t="s">
-        <v>301</v>
-      </c>
-      <c r="G246" t="s">
-        <v>19</v>
-      </c>
-      <c r="L246" t="s">
-        <v>20</v>
-      </c>
-      <c r="M246">
-        <v>0.01</v>
-      </c>
-      <c r="N246">
-        <v>0.01</v>
-      </c>
-      <c r="O246">
-        <v>0.01</v>
-      </c>
-      <c r="P246">
-        <v>0.01</v>
-      </c>
-      <c r="Q246">
-        <v>0.01</v>
-      </c>
-      <c r="R246">
-        <v>0.01</v>
-      </c>
-      <c r="S246">
-        <v>0.01</v>
-      </c>
-      <c r="T246">
-        <v>0.01</v>
-      </c>
-      <c r="U246">
-        <v>0.01</v>
-      </c>
-      <c r="V246">
-        <v>0.01</v>
-      </c>
-      <c r="W246">
-        <v>0.01</v>
-      </c>
-      <c r="X246" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>307</v>
-      </c>
-      <c r="B247" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" t="s">
-        <v>15</v>
-      </c>
-      <c r="D247" t="s">
-        <v>133</v>
-      </c>
-      <c r="E247" t="s">
-        <v>300</v>
-      </c>
-      <c r="F247" t="s">
-        <v>301</v>
-      </c>
-      <c r="G247" t="s">
-        <v>19</v>
-      </c>
-      <c r="L247" t="s">
-        <v>20</v>
-      </c>
-      <c r="M247">
-        <v>0.01</v>
-      </c>
-      <c r="N247">
-        <v>0.01</v>
-      </c>
-      <c r="O247">
-        <v>0.01</v>
-      </c>
-      <c r="P247">
-        <v>0.01</v>
-      </c>
-      <c r="Q247">
-        <v>0.01</v>
-      </c>
-      <c r="R247">
-        <v>0.01</v>
-      </c>
-      <c r="S247">
-        <v>0.01</v>
-      </c>
-      <c r="T247">
-        <v>0.01</v>
-      </c>
-      <c r="U247">
-        <v>0.01</v>
-      </c>
-      <c r="V247">
-        <v>0.01</v>
-      </c>
-      <c r="W247">
-        <v>0.01</v>
-      </c>
-      <c r="X247" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>308</v>
-      </c>
-      <c r="B248" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" t="s">
-        <v>15</v>
-      </c>
-      <c r="D248" t="s">
-        <v>169</v>
-      </c>
-      <c r="E248" t="s">
-        <v>300</v>
-      </c>
-      <c r="F248" t="s">
-        <v>301</v>
-      </c>
-      <c r="G248" t="s">
-        <v>19</v>
-      </c>
-      <c r="L248" t="s">
-        <v>20</v>
-      </c>
-      <c r="M248">
-        <v>0.01</v>
-      </c>
-      <c r="N248">
-        <v>0.01</v>
-      </c>
-      <c r="O248">
-        <v>0.01</v>
-      </c>
-      <c r="P248">
-        <v>0.01</v>
-      </c>
-      <c r="Q248">
-        <v>0.01</v>
-      </c>
-      <c r="R248">
-        <v>0.01</v>
-      </c>
-      <c r="S248">
-        <v>0.01</v>
-      </c>
-      <c r="T248">
-        <v>0.01</v>
-      </c>
-      <c r="U248">
-        <v>0.01</v>
-      </c>
-      <c r="V248">
-        <v>0.01</v>
-      </c>
-      <c r="W248">
-        <v>0.01</v>
-      </c>
-      <c r="X248" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>309</v>
-      </c>
-      <c r="B249" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" t="s">
-        <v>15</v>
-      </c>
-      <c r="D249" t="s">
-        <v>192</v>
-      </c>
-      <c r="E249" t="s">
-        <v>300</v>
-      </c>
-      <c r="F249" t="s">
-        <v>301</v>
-      </c>
-      <c r="G249" t="s">
-        <v>19</v>
-      </c>
-      <c r="L249" t="s">
-        <v>20</v>
-      </c>
-      <c r="M249">
-        <v>0.01</v>
-      </c>
-      <c r="N249">
-        <v>0.01</v>
-      </c>
-      <c r="O249">
-        <v>0.01</v>
-      </c>
-      <c r="P249">
-        <v>0.01</v>
-      </c>
-      <c r="Q249">
-        <v>0.01</v>
-      </c>
-      <c r="R249">
-        <v>0.01</v>
-      </c>
-      <c r="S249">
-        <v>0.01</v>
-      </c>
-      <c r="T249">
-        <v>0.01</v>
-      </c>
-      <c r="U249">
-        <v>0.01</v>
-      </c>
-      <c r="V249">
-        <v>0.01</v>
-      </c>
-      <c r="W249">
-        <v>0.01</v>
-      </c>
-      <c r="X249" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>310</v>
-      </c>
-      <c r="B250" t="s">
-        <v>5</v>
-      </c>
-      <c r="C250" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" t="s">
-        <v>216</v>
-      </c>
-      <c r="E250" t="s">
-        <v>300</v>
-      </c>
-      <c r="F250" t="s">
-        <v>301</v>
-      </c>
-      <c r="G250" t="s">
-        <v>19</v>
-      </c>
-      <c r="L250" t="s">
-        <v>20</v>
-      </c>
-      <c r="M250">
-        <v>0.01</v>
-      </c>
-      <c r="N250">
-        <v>0.01</v>
-      </c>
-      <c r="O250">
-        <v>0.01</v>
-      </c>
-      <c r="P250">
-        <v>0.01</v>
-      </c>
-      <c r="Q250">
-        <v>0.01</v>
-      </c>
-      <c r="R250">
-        <v>0.01</v>
-      </c>
-      <c r="S250">
-        <v>0.01</v>
-      </c>
-      <c r="T250">
-        <v>0.01</v>
-      </c>
-      <c r="U250">
-        <v>0.01</v>
-      </c>
-      <c r="V250">
-        <v>0.01</v>
-      </c>
-      <c r="W250">
-        <v>0.01</v>
-      </c>
-      <c r="X250" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>311</v>
-      </c>
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" t="s">
-        <v>15</v>
-      </c>
-      <c r="D251" t="s">
-        <v>257</v>
-      </c>
-      <c r="E251" t="s">
-        <v>300</v>
-      </c>
-      <c r="F251" t="s">
-        <v>301</v>
-      </c>
-      <c r="G251" t="s">
-        <v>19</v>
-      </c>
-      <c r="L251" t="s">
-        <v>20</v>
-      </c>
-      <c r="M251">
-        <v>0.01</v>
-      </c>
-      <c r="N251">
-        <v>0.01</v>
-      </c>
-      <c r="O251">
-        <v>0.01</v>
-      </c>
-      <c r="P251">
-        <v>0.01</v>
-      </c>
-      <c r="Q251">
-        <v>0.01</v>
-      </c>
-      <c r="R251">
-        <v>0.01</v>
-      </c>
-      <c r="S251">
-        <v>0.01</v>
-      </c>
-      <c r="T251">
-        <v>0.01</v>
-      </c>
-      <c r="U251">
-        <v>0.01</v>
-      </c>
-      <c r="V251">
-        <v>0.01</v>
-      </c>
-      <c r="W251">
-        <v>0.01</v>
-      </c>
-      <c r="X251" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
